--- a/biology/Botanique/Fête_des_vendanges_de_1909_à_Bordeaux/Fête_des_vendanges_de_1909_à_Bordeaux.xlsx
+++ b/biology/Botanique/Fête_des_vendanges_de_1909_à_Bordeaux/Fête_des_vendanges_de_1909_à_Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%AAte_des_vendanges_de_1909_%C3%A0_Bordeaux</t>
+          <t>Fête_des_vendanges_de_1909_à_Bordeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En septembre 1909 on organise pour la première fois à Bordeaux, la fête des vendanges. Pendant trois jours, du 11 au 13 septembre, la manifestation prend la forme d'une cavalcade de chars, représentant les diverses régions viticoles de la Gironde, et la création d'un opéra : Bacchus Triomphant dans un théâtre en plein air installé sur la place des Quinconces.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%AAte_des_vendanges_de_1909_%C3%A0_Bordeaux</t>
+          <t>Fête_des_vendanges_de_1909_à_Bordeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Contexte historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, Bordeaux célèbre avec faste ses produits prestigieux. En témoignent le salon international Vinexpo Bordeaux, la fondation de l’Institut des Sciences de la Vigne et du Vin, la Cité du Vin et Bordeaux fête le vin qui a lieu tous les deux ans.
 Mais en fait ceci n’est que la reprise d’une tradition centenaire, longtemps oubliée. Car à la mi-septembre 1909 eut lieu à Bordeaux une exceptionnelle « fête des vendanges », matérialisée par la représentation d’un opéra, « Bacchus triomphant », sur la place des Quinconces et de défilés de chars dans les rues de Bordeaux.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%AAte_des_vendanges_de_1909_%C3%A0_Bordeaux</t>
+          <t>Fête_des_vendanges_de_1909_à_Bordeaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>La cavalcade</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le triduum bachique, sous l'emprise de Bacchus, la reine de la Gironde et la reine des vendanges, organisé par le journal La Petite Gironde commençait chaque matin par une cavalcade de chars décorés. Les chars quittaient les allées de Chartres vers neuf heures et défilaient à travers les principales voies de la ville, entre deux haies compactes de curieux. Elle comprenait des chars encadrés de hérauts d'armes en costume moyenâgeux, de trompettes, de trompes de chasse et de fanfares à pied et à cheval, dont les sonneries déchiraient l'air. 
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%AAte_des_vendanges_de_1909_%C3%A0_Bordeaux</t>
+          <t>Fête_des_vendanges_de_1909_à_Bordeaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Le théâtre en plein-air</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le vaste emplacement de la place des Quinconces qui s'étend du monument aux Girondins aux colonnes rostrales, a été installé un immense théâtre de plein air en bois. Le théâtre pouvait contenir 25 000 spectateurs. Il a été conçu par les architectes bordelais Cyprien Alfred-Duprat et Pierre Ferret et édifié en l'espace de cinq semaines par la Coopérative des charpentiers de Paris sous la direction de M. Favaron. Soixante ouvriers seulement y ont coopéré. 
 </t>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%AAte_des_vendanges_de_1909_%C3%A0_Bordeaux</t>
+          <t>Fête_des_vendanges_de_1909_à_Bordeaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,18 +638,89 @@
           <t>Bacchus triomphant</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La seconde partie du programme se déroulait à trois heures de l'après-midi dans le théâtre : la représentation de Bacchus triomphant de Camille Erlanger et Henri Cain. Les masses chorales formant un ensemble de 600 choristes, et l'orchestre comprenant 200 exécutants, étaient dirigés par Camille Erlanger.
-On trouve une critique de la première représentation dans Le mercure musical[2].
-Synopsis du livret
-Le poème lyrique comprend trois actes :
+On trouve une critique de la première représentation dans Le mercure musical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges_de_1909_à_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges_de_1909_%C3%A0_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bacchus triomphant</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synopsis du livret</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le poème lyrique comprend trois actes :
 Le premier acte est consacré aux fêtes de la terre. Les chars de Bacchus et de Cérés sont entourés d'une foule joyeuse qui glorifie le dieu de la vigne et la déesse des moissons. Cérès chante un hymne en l'honneur du laboureur. Bacchus célèbre le vigneron au milieu des danses des dryades, des sylvains et des faunes. Bacchus et Cérès magnifient la terre sacrée. Puis, Silène parait avec son cortège, et l'acte finit sur un chant triomphal à la gloire du dieu de la vigne.
 Au deuxième acte, nous assistons à l'arrivée des Barbares devant Burdigala. Les Goths font fuir dans l'intérieur de la ville, dont les portes sont aussitôt fermées, les habitants qui, en un jour de fête, se livraient devant les remparts à leurs jeux favoris. Les Barbares sont conduits par Hunther qui entonne un chant guerrier. Soudain, les cloches de la ville sonnent ; un cantique de grâce s'élève derrière les remparts, et une vierge gauloise, suivie de jeunes filles, supplie Hunther et ses soldats d'épargner la cité, car elle leur apporte le bonheur. Hunter se laisse charmer et conquérir par tant de douceur ; il tend son hanap et la vierge le remplit du vin de son amphore. Les guerriers boivent. Burdigala sera épargnée. Les portes s'abaissent, les Barbares chargent sur leurs chars les outres de vin que l'on apporte et s'éloignent, tandis que la foule porte en triomphe sa libératrice, la jeune fille, qui élève au-dessus de tous un cep chargé de grappes : la vigne victorieuse.
-Le troisième acte est divisé en deux tableaux : l'un, consacré au défilé des saisons, se termine par un important ballet ; l'autre, le triomphe de Bacchus, couronne l'œuvre.
-Les interprètes
-L'œuvre était interprétée par : 
+Le troisième acte est divisé en deux tableaux : l'un, consacré au défilé des saisons, se termine par un important ballet ; l'autre, le triomphe de Bacchus, couronne l'œuvre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fête_des_vendanges_de_1909_à_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_des_vendanges_de_1909_%C3%A0_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bacchus triomphant</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les interprètes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'œuvre était interprétée par : 
 Felia Litvinne  interprète Cérès dans le premier acte et la déesse des Saisons dans le troisième ;
 Lucien Muratore interprète Bacchus dans le premier acte et Hunther dans le deuxième ;
 Marthe Chenal joue le rôle de la vierge gauloise au deuxième acte ;
